--- a/assets/files/downloads/cyb/Cybersecurity-Services(CVD)-Business-Capabilities.xlsx
+++ b/assets/files/downloads/cyb/Cybersecurity-Services(CVD)-Business-Capabilities.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="768" firstSheet="2" activeTab="7"/>
+    <workbookView activeTab="3" firstSheet="2" tabRatio="768" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="25" r:id="rId1"/>
@@ -72,38 +72,40 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">The worksheets in this workbook identify and provide background information for the </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF4472C4"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Coordinated Vulnerability Disclosure </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Business Capabilities. </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -125,20 +127,20 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF4472C4"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Coordinated Vulnerability Disclosure </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>Business Capabilities workbook</t>
@@ -815,160 +817,180 @@
   <si>
     <t>Gathering information from vulnerability finders, coordinating the sharing of that information between relevant stakeholders, and disclosing the existence of software vulnerabilities and their mitigations to various stakeholders including the public in order to reduce an adversary's advantage while an information security vulnerability is being mitigated.</t>
   </si>
+  <si>
+    <t>Federal Financial Management</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>Federal Regulation Management</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" mc:Ignorable="x14ac">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF4472C4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -981,19 +1003,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -1040,79 +1062,101 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="25">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1127,303 +1171,355 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1450,52 +1546,52 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,16 +1604,16 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,31 +1628,31 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,12 +1664,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,8 +1697,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1615,10 +1711,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1629,13 +1725,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1644,9 +1740,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2688,15 +2786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0" showRowColHeaders="0" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="33.54296875" customWidth="1"/>
@@ -2707,8 +2804,8 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
     </row>
-    <row r="7" spans="1:1" ht="14.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="14.9" customHeight="1" r="7" spans="1:1" x14ac:dyDescent="0.35"/>
+    <row ht="21.5" r="24" spans="1:10" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2720,7 +2817,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="27.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="27.65" customHeight="1" r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2833,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15" customHeight="1" r="26" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="46">
         <v>0.1</v>
       </c>
@@ -2752,7 +2849,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15" customHeight="1" r="27" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="24">
         <v>0.2</v>
       </c>
@@ -2768,7 +2865,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15.75" customHeight="1" r="28" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="24">
         <v>0.3</v>
       </c>
@@ -2784,7 +2881,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15" customHeight="1" r="29" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2792,7 +2889,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15" customHeight="1" r="30" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2800,7 +2897,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row ht="15" customHeight="1" r="31" spans="1:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2808,7 +2905,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="32" spans="1:10" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2823,23 +2920,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="120">
+      <selection pane="topLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="23.81640625" customWidth="1"/>
     <col min="2" max="2" width="86.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="56.25" customHeight="1" r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="33.75" customHeight="1" r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -2864,7 +2960,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="26.25" customHeight="1" r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2971,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="68.25" customHeight="1" r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -2886,7 +2982,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="52.5" customHeight="1" r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +2990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="37.5" customHeight="1" r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
@@ -2921,25 +3017,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScalePageLayoutView="90">
+      <selection pane="topLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="90" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="39" customHeight="1" r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +3052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>25</v>
       </c>
@@ -2968,7 +3063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>28</v>
       </c>
@@ -2979,7 +3074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="108" customHeight="1" r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>31</v>
       </c>
@@ -2990,7 +3085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="68.5" customHeight="1" r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>34</v>
       </c>
@@ -3001,7 +3096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="145.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="145.75" customHeight="1" r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="107.5" customHeight="1" r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>40</v>
       </c>
@@ -3023,7 +3118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="38.5" customHeight="1" r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>43</v>
       </c>
@@ -3071,23 +3166,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" style="79" customWidth="1"/>
     <col min="2" max="2" width="67.81640625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="73"/>
-    <col min="4" max="4" width="9.453125" style="74"/>
-    <col min="5" max="16384" width="9.453125" style="73"/>
+    <col min="3" max="3" width="9.453125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="74" customWidth="1"/>
+    <col min="5" max="16384" width="9.453125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="69" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="19" r="1" spans="1:4" s="69" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
         <v>175</v>
       </c>
@@ -3105,82 +3199,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>180</v>
+      <c r="A3" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>182</v>
+      <c r="A4" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>184</v>
+      <c r="A5" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>186</v>
+      <c r="A6" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>188</v>
+      <c r="A7" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="A8" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B8" s="76" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="77" t="s">
+    <row r="9">
+      <c r="A9" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row ht="15" r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B10" s="78" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3190,24 +3268,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="73" customWidth="1"/>
     <col min="2" max="2" width="29.453125" style="79" customWidth="1"/>
     <col min="3" max="3" width="44.1796875" style="73" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" style="73" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38.1796875" style="73" customWidth="1"/>
-    <col min="6" max="16384" width="9.453125" style="73"/>
+    <col min="6" max="16384" width="9.453125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="80" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="29" r="1" spans="1:5" s="80" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="99" t="s">
         <v>199</v>
       </c>
@@ -3215,7 +3292,7 @@
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
     </row>
-    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+    <row ht="18.5" r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="81" t="s">
         <v>175</v>
       </c>
@@ -3344,7 +3421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="80" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
+    <row ht="28.5" r="13" spans="1:5" s="80" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="99" t="s">
         <v>199</v>
       </c>
@@ -3362,23 +3439,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="43.81640625" style="94" customWidth="1"/>
     <col min="2" max="2" width="22.26953125" style="80" customWidth="1"/>
     <col min="3" max="3" width="37.08984375" style="95" customWidth="1"/>
     <col min="4" max="4" width="109" style="95" customWidth="1"/>
-    <col min="5" max="16384" width="9.453125" style="80"/>
+    <col min="5" max="16384" width="9.453125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row ht="28.5" r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="99" t="s">
         <v>199</v>
       </c>
@@ -3386,7 +3462,7 @@
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
     </row>
-    <row r="2" spans="1:4" s="89" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row ht="18.5" r="2" spans="1:4" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>223</v>
       </c>
@@ -3400,7 +3476,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="90" t="s">
         <v>227</v>
       </c>
@@ -3414,7 +3490,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row ht="28.5" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="99" t="s">
         <v>199</v>
       </c>
@@ -3435,32 +3511,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomScaleNormal="80" zoomScalePageLayoutView="90" zoomScaleSheetLayoutView="100">
+      <selection pane="topLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="20" customWidth="1"/>
     <col min="2" max="2" width="82" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.453125" style="22" customWidth="1"/>
     <col min="4" max="4" width="76.54296875" style="4" customWidth="1"/>
     <col min="5" max="25" width="9" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="3"/>
+    <col min="26" max="16384" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="14.25" customHeight="1" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="100"/>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="30" customHeight="1" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>46</v>
       </c>
@@ -3484,7 +3559,7 @@
       </c>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="19.5" customHeight="1" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -3496,7 +3571,7 @@
       </c>
       <c r="D4" s="66"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="30" customHeight="1" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
@@ -3507,7 +3582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="30" customHeight="1" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>57</v>
       </c>
@@ -3529,7 +3604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="55.5" customHeight="1" r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="101" t="s">
         <v>59</v>
       </c>
@@ -3554,19 +3629,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C8" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C8" sqref="C8"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21" style="43" customWidth="1"/>
     <col min="2" max="2" width="51.6328125" style="43" customWidth="1"/>
@@ -3576,10 +3650,10 @@
     <col min="6" max="6" width="16.54296875" style="44" customWidth="1"/>
     <col min="7" max="7" width="31.81640625" style="45" customWidth="1"/>
     <col min="8" max="8" width="43.1796875" style="65" customWidth="1"/>
-    <col min="9" max="16384" width="8.54296875" style="65"/>
+    <col min="9" max="16384" width="8.54296875" style="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -3602,7 +3676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="2" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>61</v>
       </c>
@@ -3625,7 +3699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="3" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
         <v>61</v>
       </c>
@@ -3648,7 +3722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="62" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="4" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>61</v>
       </c>
@@ -3671,7 +3745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="5" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>61</v>
       </c>
@@ -3694,7 +3768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="6" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>61</v>
       </c>
@@ -3717,7 +3791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="7" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>61</v>
       </c>
@@ -3740,7 +3814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="8" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>61</v>
       </c>
@@ -3763,7 +3837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="9" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>61</v>
       </c>
@@ -3786,7 +3860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="10" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>61</v>
       </c>
@@ -3809,7 +3883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="11" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>61</v>
       </c>
@@ -3832,7 +3906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="12" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>61</v>
       </c>
@@ -3855,7 +3929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="13" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
         <v>61</v>
       </c>
@@ -3878,7 +3952,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="14" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>61</v>
       </c>
@@ -3901,7 +3975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="15" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>61</v>
       </c>
@@ -3924,7 +3998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="16" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +4021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="17" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57" t="s">
         <v>61</v>
       </c>
@@ -3970,7 +4044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="18" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
         <v>61</v>
       </c>
@@ -3993,7 +4067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="19" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
         <v>61</v>
       </c>
@@ -4016,7 +4090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="20" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
         <v>61</v>
       </c>
@@ -4039,7 +4113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="62" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="21" spans="1:7" s="62" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
@@ -4048,7 +4122,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" s="62" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row ht="44" r="22" spans="1:7" s="62" customFormat="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="57" t="s">
         <v>61</v>
       </c>
@@ -4071,7 +4145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="23" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="57" t="s">
         <v>61</v>
       </c>
@@ -4094,7 +4168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="24" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="57" t="s">
         <v>61</v>
       </c>
@@ -4117,7 +4191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="25" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="57" t="s">
         <v>61</v>
       </c>
@@ -4140,7 +4214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="26" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
         <v>61</v>
       </c>
@@ -4163,7 +4237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="27" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="57" t="s">
         <v>61</v>
       </c>
@@ -4186,7 +4260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="28" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="57" t="s">
         <v>61</v>
       </c>
@@ -4209,7 +4283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="29" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
         <v>61</v>
       </c>
@@ -4232,7 +4306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="30" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>61</v>
       </c>
@@ -4255,7 +4329,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="31" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="57" t="s">
         <v>61</v>
       </c>
@@ -4278,7 +4352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="32" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="57" t="s">
         <v>61</v>
       </c>
@@ -4301,7 +4375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="62" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="33" spans="1:7" s="62" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
@@ -4310,7 +4384,7 @@
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
     </row>
-    <row r="34" spans="1:7" s="62" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row ht="44" r="34" spans="1:7" s="62" customFormat="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34" s="57" t="s">
         <v>61</v>
       </c>
@@ -4333,7 +4407,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="35" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="57" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="36" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="57" t="s">
         <v>61</v>
       </c>
@@ -4379,7 +4453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="37" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="57" t="s">
         <v>61</v>
       </c>
@@ -4402,7 +4476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="38" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="57" t="s">
         <v>61</v>
       </c>
@@ -4425,7 +4499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="39" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="57" t="s">
         <v>61</v>
       </c>
@@ -4448,7 +4522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="40" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="57" t="s">
         <v>61</v>
       </c>
@@ -4471,7 +4545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="41" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="57" t="s">
         <v>61</v>
       </c>
@@ -4494,7 +4568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="42" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57" t="s">
         <v>61</v>
       </c>
@@ -4517,7 +4591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57" t="s">
         <v>61</v>
       </c>
@@ -4540,7 +4614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>61</v>
       </c>
@@ -4563,7 +4637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="45" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="57" t="s">
         <v>61</v>
       </c>
@@ -4586,7 +4660,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="46" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="57" t="s">
         <v>61</v>
       </c>
@@ -4609,7 +4683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="47" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="57" t="s">
         <v>61</v>
       </c>
@@ -4632,7 +4706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="48" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="57" t="s">
         <v>61</v>
       </c>
@@ -4655,7 +4729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="49" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="57" t="s">
         <v>61</v>
       </c>
@@ -4678,7 +4752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="50" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="57" t="s">
         <v>61</v>
       </c>
@@ -4701,7 +4775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="51" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="57" t="s">
         <v>61</v>
       </c>
@@ -4724,7 +4798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="62" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="52" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="57" t="s">
         <v>61</v>
       </c>
@@ -4747,7 +4821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="53" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="57" t="s">
         <v>61</v>
       </c>
@@ -4770,7 +4844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="54" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="57" t="s">
         <v>61</v>
       </c>
@@ -4793,7 +4867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="62" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="55" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="57" t="s">
         <v>61</v>
       </c>
@@ -4816,7 +4890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="62" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="56" spans="1:7" s="62" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="35"/>
@@ -4825,7 +4899,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="34"/>
     </row>
-    <row r="57" spans="1:7" s="62" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="57" spans="1:7" s="62" customFormat="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="63"/>
@@ -4836,7 +4910,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
+    <dataValidation type="none" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.4" bottom="0.5" header="0.25" footer="0.25"/>
